--- a/Internship_artifacts/Defect_Tracker Template_v0.1.xlsx
+++ b/Internship_artifacts/Defect_Tracker Template_v0.1.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/kamaljeet_kaur01_ad_infosys_com1/Documents/Infosys/CC/Events/Oct 2021 - Mar 2022/CC2.0/Internship/Jan-Apr 2022/Artifacts/internship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udaykiran\silent\ANPR-and-ATCC-for-Smart-Traffic-Management\Internship_artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:101_{A9B59A9A-789B-4A89-A90D-BB9A1B756E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1529751A-99C4-4233-8104-CEB3E356847C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDB1D0-8CA8-44FA-AF14-E04111F78DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Sl No</t>
   </si>
@@ -69,6 +69,51 @@
   </si>
   <si>
     <t>Status(Open/Closed)</t>
+  </si>
+  <si>
+    <t>for yolo model training system crashes with cpu</t>
+  </si>
+  <si>
+    <t>sprint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPU based </t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>object detection model accuracy is low</t>
+  </si>
+  <si>
+    <t>trained on large dataset</t>
+  </si>
+  <si>
+    <t>not figuring out the best ocr</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
+  </si>
+  <si>
+    <t>using image ocr</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">installation of imageocr </t>
+  </si>
+  <si>
+    <t>sprint2</t>
+  </si>
+  <si>
+    <t>checking with python and tensorflow version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoting licensenumber </t>
+  </si>
+  <si>
+    <t>subtraction of the coordinates</t>
   </si>
 </sst>
 </file>
@@ -174,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -191,6 +236,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,9 +300,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,26 +335,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,26 +370,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -529,27 +546,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="17.5703125" style="4"/>
+    <col min="6" max="6" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="17.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,72 +603,152 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="8">
+        <v>45610</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45610</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="8">
+        <v>45612</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8">
+        <v>45612</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="8">
+        <v>45624</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45624</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="5" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9">
+        <v>45625</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45625</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="8">
+        <v>45631</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45632</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -662,33 +761,33 @@
       <c r="J7" s="3"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -701,7 +800,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -714,7 +813,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -727,7 +826,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -740,7 +839,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -753,20 +852,20 @@
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -779,20 +878,20 @@
       <c r="J16" s="3"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -804,32 +903,6 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -859,29 +932,29 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -893,6 +966,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F50FC49184C87E449886FB52439922C9" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85b7e58c3d8889ba0673e7b34a193a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67b99c0-208c-4860-83e0-51466af787c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d43477c1ade21a66d9a75ba2d5aa042" ns2:_="">
     <xsd:import namespace="b67b99c0-208c-4860-83e0-51466af787c4"/>
@@ -1024,22 +1112,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B149665-BEBB-4C97-BAA6-72374EAA67F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{191CB444-B9BF-4C91-94BD-600524521497}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1055,21 +1145,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B149665-BEBB-4C97-BAA6-72374EAA67F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D196DE-5AC8-4D3B-8CD7-1A2AE6EEDD72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>